--- a/resources/testData/HotelBookingTestData.xlsx
+++ b/resources/testData/HotelBookingTestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF49C061-ADDA-49B5-B76A-0B8FBAFEB156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAF2C3D-EE0F-4FC8-904B-00C39F08E220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createHotelBooking" sheetId="1" r:id="rId1"/>
+    <sheet name="partialUpdateBooking" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>firstName</t>
   </si>
@@ -490,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,4 +644,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C3B9F-3DBD-42A6-BB12-9B36A46D1395}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>500</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>